--- a/August'21/28.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/28.08.2021/Daily Sales Info August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="828" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="828" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -46380,9 +46380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47972,9 +47972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48573,7 +48573,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="29">
-        <v>16491</v>
+        <v>18547</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -48587,15 +48587,15 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>17391</v>
+        <v>19447</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>17391</v>
+        <v>19447</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>478.2525</v>
+        <v>534.79250000000002</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
@@ -48603,15 +48603,15 @@
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>16788.747500000001</v>
+        <v>18788.2075</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>165.21449999999999</v>
+        <v>184.7465</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>41.214499999999987</v>
+        <v>60.746499999999997</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -48685,7 +48685,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="29">
-        <v>11998</v>
+        <v>11997</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30">
@@ -48705,15 +48705,15 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>13268</v>
+        <v>13267</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>15515</v>
+        <v>15514</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>364.87</v>
+        <v>364.84250000000003</v>
       </c>
       <c r="P16" s="26">
         <v>-1500</v>
@@ -48723,15 +48723,15 @@
       </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>15025.13</v>
+        <v>15024.157499999999</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>126.04599999999999</v>
+        <v>126.0365</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>1.0459999999999923</v>
+        <v>1.0365000000000038</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -49312,7 +49312,7 @@
       <c r="C28" s="97"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>212380</v>
+        <v>214435</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -49348,15 +49348,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>217850</v>
+        <v>219905</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>236952</v>
+        <v>239007</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>5990.875</v>
+        <v>6047.3874999999998</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -49368,15 +49368,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>229112.12499999997</v>
+        <v>231110.61250000002</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>2069.5749999999998</v>
+        <v>2089.0974999999999</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>220.57499999999993</v>
+        <v>240.09749999999985</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -49387,7 +49387,7 @@
       <c r="C29" s="100"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>281037</v>
+        <v>278982</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -49759,7 +49759,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>281037</v>
+        <v>278982</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -50937,7 +50937,7 @@
       <c r="C29" s="100"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>281037</v>
+        <v>278982</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -53032,7 +53032,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>281037</v>
+        <v>278982</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -54210,7 +54210,7 @@
       <c r="C29" s="100"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>281037</v>
+        <v>278982</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -54582,7 +54582,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>281037</v>
+        <v>278982</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -55760,7 +55760,7 @@
       <c r="C29" s="100"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>281037</v>
+        <v>278982</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -56834,7 +56834,7 @@
       </c>
       <c r="D14" s="21">
         <f>'1'!D14+'2'!D14+'3'!D14+'4'!D14+'5'!D14+'6'!D14+'7'!D14+'8'!D14+'9'!D14+'10'!D14+'11'!D14+'12'!D14+'13'!D14+'14'!D14+'15'!D14+'16'!D14+'17'!D14+'18'!D14+'19'!D14+'20'!D14+'21'!D14+'22'!D14+'23'!D14+'24'!D14+'25'!D14+'26'!D14+'27'!D14+'28'!D14+'29'!D14+'30'!D14+'31'!D14</f>
-        <v>369590</v>
+        <v>371646</v>
       </c>
       <c r="E14" s="21">
         <f>'1'!E14+'2'!E14+'3'!E14+'4'!E14+'5'!E14+'6'!E14+'7'!E14+'8'!E14+'9'!E14+'10'!E14+'11'!E14+'12'!E14+'13'!E14+'14'!E14+'15'!E14+'16'!E14+'17'!E14+'18'!E14+'19'!E14+'20'!E14+'21'!E14+'22'!E14+'23'!E14+'24'!E14+'25'!E14+'26'!E14+'27'!E14+'28'!E14+'29'!E14+'30'!E14+'31'!E14</f>
@@ -56870,15 +56870,15 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>389770</v>
+        <v>391826</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>398522</v>
+        <v>400578</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>10718.674999999999</v>
+        <v>10775.215</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
@@ -56887,15 +56887,15 @@
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>384251.32500000001</v>
+        <v>386250.78499999997</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>3702.8150000000001</v>
+        <v>3722.3469999999998</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>150.81500000000005</v>
+        <v>170.34699999999975</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -56986,7 +56986,7 @@
       </c>
       <c r="D16" s="21">
         <f>'1'!D16+'2'!D16+'3'!D16+'4'!D16+'5'!D16+'6'!D16+'7'!D16+'8'!D16+'9'!D16+'10'!D16+'11'!D16+'12'!D16+'13'!D16+'14'!D16+'15'!D16+'16'!D16+'17'!D16+'18'!D16+'19'!D16+'20'!D16+'21'!D16+'22'!D16+'23'!D16+'24'!D16+'25'!D16+'26'!D16+'27'!D16+'28'!D16+'29'!D16+'30'!D16+'31'!D16</f>
-        <v>363937</v>
+        <v>363936</v>
       </c>
       <c r="E16" s="21">
         <f>'1'!E16+'2'!E16+'3'!E16+'4'!E16+'5'!E16+'6'!E16+'7'!E16+'8'!E16+'9'!E16+'10'!E16+'11'!E16+'12'!E16+'13'!E16+'14'!E16+'15'!E16+'16'!E16+'17'!E16+'18'!E16+'19'!E16+'20'!E16+'21'!E16+'22'!E16+'23'!E16+'24'!E16+'25'!E16+'26'!E16+'27'!E16+'28'!E16+'29'!E16+'30'!E16+'31'!E16</f>
@@ -57022,15 +57022,15 @@
       </c>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>396667</v>
+        <v>396666</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>430797</v>
+        <v>430796</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>10908.342500000001</v>
+        <v>10908.315000000001</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26">
@@ -57039,15 +57039,15 @@
       </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>416967.65749999997</v>
+        <v>416966.685</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>3768.3364999999999</v>
+        <v>3768.3269999999998</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>847.33649999999989</v>
+        <v>847.32699999999977</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -57894,7 +57894,7 @@
       <c r="C28" s="97"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>5664574</v>
+        <v>5666629</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -57930,15 +57930,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>5973314</v>
+        <v>5975369</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>6397077</v>
+        <v>6399132</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>164266.13499999998</v>
+        <v>164322.64749999999</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -57950,15 +57950,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>6188627.8650000012</v>
+        <v>6190626.352500001</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>56746.482999999986</v>
+        <v>56766.005499999992</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>12563.483</v>
+        <v>12583.005499999999</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57969,7 +57969,7 @@
       <c r="C29" s="100"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>281037</v>
+        <v>278982</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
